--- a/opal2.xlsx
+++ b/opal2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="24120" windowHeight="15320" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24380" windowHeight="15560" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="33">
   <si>
     <t>Key</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -126,6 +126,30 @@
   </si>
   <si>
     <t>auto top up</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>85400000611c204c0200c50a89684f0a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>85400000a11ca0040204c5d6837887c1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>85400000c11c202f0204c526848b82e6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nth syd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rhodes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rhodes</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -185,8 +209,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -199,12 +225,14 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="7">
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -533,10 +561,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -766,6 +794,65 @@
         <v>41829</v>
       </c>
     </row>
+    <row r="14" spans="1:8">
+      <c r="A14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G14">
+        <v>52.72</v>
+      </c>
+      <c r="H14" s="2">
+        <v>41829</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="C15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15">
+        <v>-3.29</v>
+      </c>
+      <c r="G15">
+        <v>49.43</v>
+      </c>
+      <c r="H15" s="2">
+        <v>41829</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" t="s">
+        <v>32</v>
+      </c>
+      <c r="G16">
+        <v>49.43</v>
+      </c>
+      <c r="H16" s="2">
+        <v>41830</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17">
+        <v>-4.7</v>
+      </c>
+      <c r="G17">
+        <v>44.73</v>
+      </c>
+      <c r="H17" s="2">
+        <v>41830</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/opal2.xlsx
+++ b/opal2.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="45">
   <si>
     <t>Key</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -150,6 +150,54 @@
   </si>
   <si>
     <t>rhodes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>85400000e11c202f0204c55488886ce4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nth syd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>85400000011d202f0204c5ba889b09cd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eastwood</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>85400000211d202f0208c5d0839888b6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rhodes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>85400000411d202f0208c52884aba04f</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nth syd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>85400000611d202f0208c59e88a8b524</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>85400000811d202f0208c50289bb956c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>85400000e11de0c90114c5d683c812da</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>85400000011e60f40114c52a841b43e0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -157,7 +205,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -191,6 +239,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -209,7 +265,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -217,22 +273,55 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="23">
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="22" builtinId="9" hidden="1"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="21" builtinId="8" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -561,10 +650,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -853,6 +942,127 @@
         <v>41830</v>
       </c>
     </row>
+    <row r="18" spans="1:8">
+      <c r="A18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" t="s">
+        <v>34</v>
+      </c>
+      <c r="G18">
+        <v>44.73</v>
+      </c>
+      <c r="H18" s="2">
+        <v>41830</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" t="s">
+        <v>36</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>44.73</v>
+      </c>
+      <c r="H19" s="2">
+        <v>41830</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" t="s">
+        <v>38</v>
+      </c>
+      <c r="G20">
+        <v>44.73</v>
+      </c>
+      <c r="H20" s="2">
+        <v>41831</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" t="s">
+        <v>40</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>44.73</v>
+      </c>
+      <c r="H21" s="2">
+        <v>41831</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" t="s">
+        <v>40</v>
+      </c>
+      <c r="G22">
+        <v>44.73</v>
+      </c>
+      <c r="H22" s="2">
+        <v>41831</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" t="s">
+        <v>38</v>
+      </c>
+      <c r="G23">
+        <v>44.73</v>
+      </c>
+      <c r="H23" s="2">
+        <v>41831</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" t="s">
+        <v>43</v>
+      </c>
+      <c r="B24" t="s">
+        <v>38</v>
+      </c>
+      <c r="G24">
+        <v>44.73</v>
+      </c>
+      <c r="H24" s="3">
+        <v>41834</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" t="s">
+        <v>44</v>
+      </c>
+      <c r="C25" t="s">
+        <v>40</v>
+      </c>
+      <c r="E25">
+        <v>-4.7</v>
+      </c>
+      <c r="G25">
+        <v>40.03</v>
+      </c>
+      <c r="H25" s="3">
+        <v>41834</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
